--- a/data/SPA52/spike_vary/Results tri236 -1.5sig.xlsx
+++ b/data/SPA52/spike_vary/Results tri236 -1.5sig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
   <si>
     <t>Lab. #</t>
   </si>
@@ -100,6 +100,9 @@
     <t>flowstone</t>
   </si>
   <si>
+    <t>Filename: C:\Neptune\User\Neptune\Data\UTh\2015\0815\011_7184.dat</t>
+  </si>
+  <si>
     <t>gem.</t>
   </si>
   <si>
@@ -272,6 +275,12 @@
   </si>
   <si>
     <t>2sig/t</t>
+  </si>
+  <si>
+    <t>Unkorr. Montefehler Erfolgsrate</t>
+  </si>
+  <si>
+    <t>Korr. Montefehler Erfolgsrate</t>
   </si>
   <si>
     <t>(abso.)</t>
@@ -980,7 +989,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
@@ -1083,40 +1092,40 @@
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1">
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1128,6 +1137,9 @@
       </c>
       <c r="C3" t="s">
         <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0.1057</v>
@@ -1197,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1251,9 +1263,9 @@
     <col min="46" max="46" width="18.7109375" customWidth="1"/>
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="12.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="19.7109375" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="51" max="51" width="20.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="19.7109375" customWidth="1"/>
@@ -1261,9 +1273,11 @@
     <col min="56" max="56" width="11.7109375" customWidth="1"/>
     <col min="57" max="57" width="18.7109375" customWidth="1"/>
     <col min="58" max="58" width="20.7109375" customWidth="1"/>
+    <col min="59" max="59" width="32.7109375" customWidth="1"/>
+    <col min="60" max="60" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1">
+    <row r="1" spans="1:60" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,339 +1285,351 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="2" customFormat="1">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" s="2" customFormat="1">
-      <c r="C2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+      <c r="BH2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
       <c r="A3">
         <v>7184</v>
       </c>
@@ -1728,10 +1754,10 @@
         <v>282.4498</v>
       </c>
       <c r="AP3">
-        <v>0.5335</v>
+        <v>0.5404</v>
       </c>
       <c r="AQ3">
-        <v>0.1888831218857298</v>
+        <v>0.1913260338651329</v>
       </c>
       <c r="AR3">
         <v>0.0006746186406766767</v>
@@ -1749,13 +1775,13 @@
         <v>282.397</v>
       </c>
       <c r="AW3">
-        <v>0.5310528112</v>
+        <v>0.5359</v>
       </c>
       <c r="AX3">
-        <v>0.5344700088064048</v>
+        <v>0.5344700088773415</v>
       </c>
       <c r="AY3">
-        <v>0.1880518600410061</v>
+        <v>0.1897683049040889</v>
       </c>
       <c r="AZ3" t="s">
         <v>25</v>
@@ -1764,16 +1790,22 @@
         <v>45.84102039064854</v>
       </c>
       <c r="BC3">
-        <v>0.5689369957906746</v>
+        <v>0.5690130552067499</v>
       </c>
       <c r="BD3">
         <v>282339</v>
       </c>
       <c r="BE3">
-        <v>267.2350044032024</v>
+        <v>267.2350044386708</v>
       </c>
       <c r="BF3">
-        <v>0.1892619287054766</v>
+        <v>0.1892619287305961</v>
+      </c>
+      <c r="BG3">
+        <v>100</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1836,7 @@
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
@@ -1818,52 +1850,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -1871,55 +1903,55 @@
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1963,19 +1995,19 @@
         <v>282.4498</v>
       </c>
       <c r="N3">
-        <v>0.5335</v>
+        <v>0.5404</v>
       </c>
       <c r="O3">
         <v>282.397</v>
       </c>
       <c r="P3">
-        <v>0.5310528112</v>
+        <v>0.5359</v>
       </c>
       <c r="Q3">
         <v>45.84102039064854</v>
       </c>
       <c r="R3">
-        <v>0.5689369957906746</v>
+        <v>0.5690130552067499</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4">
         <v>0.002324</v>
@@ -2005,7 +2037,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4">
         <v>0.005066</v>
@@ -2013,15 +2045,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4">
-        <v>4.8E-05</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" s="4">
         <v>1.336402435064349</v>
@@ -2029,7 +2061,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B5" s="4">
         <v>1.008202776684838</v>
@@ -2037,7 +2069,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4">
         <v>0.334493224630051</v>
@@ -2045,7 +2077,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4">
         <v>0.665506775369946</v>
@@ -2053,7 +2085,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>1.025840620457897</v>
@@ -2061,7 +2093,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>1.673784240557133</v>
@@ -2069,7 +2101,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>0.673784240557127</v>
@@ -2077,7 +2109,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B11" s="4">
         <v>-0.337307116990441</v>
@@ -2085,7 +2117,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B12" s="4">
         <v>0.336402435064353</v>
@@ -2093,7 +2125,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4">
         <v>-0.34318587041139</v>
@@ -2101,7 +2133,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B14" s="4">
         <v>-1.025840620457897</v>
@@ -2109,7 +2141,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B15" s="4">
         <v>0.337307116990439</v>
@@ -2117,7 +2149,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -2125,7 +2157,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B17" s="4">
         <v>0.682654750046506</v>
@@ -2133,7 +2165,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4">
         <v>6.02214129E+23</v>
@@ -2141,7 +2173,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B19" s="4">
         <v>137.881</v>
@@ -2149,7 +2181,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B20" s="4">
         <v>62500000</v>
@@ -2157,7 +2189,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4">
         <v>3.4053</v>
@@ -2165,7 +2197,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B22" s="4">
         <v>4.94752E-11</v>
@@ -2173,7 +2205,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4">
         <v>2.82206E-06</v>
@@ -2181,7 +2213,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B24" s="4">
         <v>1.55125E-10</v>
@@ -2189,7 +2221,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4">
         <v>9.1705E-06</v>
@@ -2197,7 +2229,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" s="4">
         <v>3.867645</v>
@@ -2205,7 +2237,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B27" s="4">
         <v>0.038556</v>
@@ -2213,7 +2245,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4">
         <v>0.018067</v>
@@ -2221,7 +2253,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B29" s="4">
         <v>0.3</v>
@@ -2229,7 +2261,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2237,7 +2269,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4">
         <v>0.005</v>
@@ -2245,7 +2277,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2253,7 +2285,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B33" s="4">
         <v>0.003</v>
@@ -2261,7 +2293,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2269,7 +2301,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B35" s="4">
         <v>0.05</v>
@@ -2277,7 +2309,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2285,7 +2317,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4">
         <v>0.75</v>
@@ -2293,7 +2325,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38" s="4">
         <v>0.375</v>
